--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H2">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,22 +567,22 @@
         <v>1.965347</v>
       </c>
       <c r="O2">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P2">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q2">
-        <v>15.01273849304644</v>
+        <v>52.80265662395144</v>
       </c>
       <c r="R2">
-        <v>135.114646437418</v>
+        <v>475.223909615563</v>
       </c>
       <c r="S2">
-        <v>0.04425419546549644</v>
+        <v>0.1628719910512948</v>
       </c>
       <c r="T2">
-        <v>0.04425419546549644</v>
+        <v>0.1628719910512948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H3">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N3">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O3">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P3">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q3">
-        <v>3.848937907640888</v>
+        <v>3.674120499481889</v>
       </c>
       <c r="R3">
-        <v>34.64044116876799</v>
+        <v>33.06708449533701</v>
       </c>
       <c r="S3">
-        <v>0.01134580813341899</v>
+        <v>0.01133297753131519</v>
       </c>
       <c r="T3">
-        <v>0.011345808133419</v>
+        <v>0.01133297753131519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H4">
         <v>280.043709</v>
       </c>
       <c r="I4">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J4">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,22 +691,22 @@
         <v>1.965347</v>
       </c>
       <c r="O4">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P4">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q4">
-        <v>61.15367370578034</v>
+        <v>61.15367370578032</v>
       </c>
       <c r="R4">
-        <v>550.3830633520231</v>
+        <v>550.383063352023</v>
       </c>
       <c r="S4">
-        <v>0.1802673530123963</v>
+        <v>0.1886310506589865</v>
       </c>
       <c r="T4">
-        <v>0.1802673530123963</v>
+        <v>0.1886310506589865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H5">
         <v>280.043709</v>
       </c>
       <c r="I5">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J5">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N5">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O5">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P5">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q5">
-        <v>15.67846486013867</v>
+        <v>4.255201926319667</v>
       </c>
       <c r="R5">
-        <v>141.106183741248</v>
+        <v>38.296817336877</v>
       </c>
       <c r="S5">
-        <v>0.04621660790540405</v>
+        <v>0.01312534736653038</v>
       </c>
       <c r="T5">
-        <v>0.04621660790540405</v>
+        <v>0.01312534736653038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H6">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I6">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J6">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,22 +815,22 @@
         <v>1.965347</v>
       </c>
       <c r="O6">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P6">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q6">
-        <v>52.55942244039689</v>
+        <v>53.90859079175043</v>
       </c>
       <c r="R6">
-        <v>473.034801963572</v>
+        <v>485.1773171257539</v>
       </c>
       <c r="S6">
-        <v>0.1549334223938066</v>
+        <v>0.1662832910009146</v>
       </c>
       <c r="T6">
-        <v>0.1549334223938066</v>
+        <v>0.1662832910009146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H7">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I7">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J7">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N7">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O7">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P7">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q7">
-        <v>13.47508674238578</v>
+        <v>3.751073737382889</v>
       </c>
       <c r="R7">
-        <v>121.275780681472</v>
+        <v>33.759663636446</v>
       </c>
       <c r="S7">
-        <v>0.03972154200169847</v>
+        <v>0.01157034299502738</v>
       </c>
       <c r="T7">
-        <v>0.03972154200169847</v>
+        <v>0.01157034299502738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H8">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I8">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J8">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -939,22 +939,22 @@
         <v>1.965347</v>
       </c>
       <c r="O8">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P8">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q8">
-        <v>51.00801529693366</v>
+        <v>29.75773820102667</v>
       </c>
       <c r="R8">
-        <v>459.0721376724029</v>
+        <v>267.8196438092399</v>
       </c>
       <c r="S8">
-        <v>0.1503602211084322</v>
+        <v>0.09178898146169996</v>
       </c>
       <c r="T8">
-        <v>0.1503602211084322</v>
+        <v>0.09178898146169996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H9">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I9">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J9">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N9">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O9">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P9">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q9">
-        <v>13.07733987112533</v>
+        <v>2.070606346973333</v>
       </c>
       <c r="R9">
-        <v>117.696058840128</v>
+        <v>18.63545712276</v>
       </c>
       <c r="S9">
-        <v>0.03854907318165594</v>
+        <v>0.006386871418549425</v>
       </c>
       <c r="T9">
-        <v>0.03854907318165594</v>
+        <v>0.006386871418549423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H10">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I10">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J10">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1063,22 +1063,22 @@
         <v>1.965347</v>
       </c>
       <c r="O10">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P10">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q10">
-        <v>37.23410882768566</v>
+        <v>41.670934054786</v>
       </c>
       <c r="R10">
-        <v>335.106979449171</v>
+        <v>375.038406493074</v>
       </c>
       <c r="S10">
-        <v>0.1097578253832354</v>
+        <v>0.1285357296850777</v>
       </c>
       <c r="T10">
-        <v>0.1097578253832354</v>
+        <v>0.1285357296850777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H11">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I11">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J11">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N11">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O11">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P11">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q11">
-        <v>9.546011408277332</v>
+        <v>2.899551705014</v>
       </c>
       <c r="R11">
-        <v>85.91410267449599</v>
+        <v>26.095965345126</v>
       </c>
       <c r="S11">
-        <v>0.02813950665785816</v>
+        <v>0.0089437878611886</v>
       </c>
       <c r="T11">
-        <v>0.02813950665785817</v>
+        <v>0.008943787861188598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H12">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I12">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J12">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>1.965347</v>
       </c>
       <c r="O12">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P12">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q12">
-        <v>53.04530600758756</v>
+        <v>63.812896945981</v>
       </c>
       <c r="R12">
-        <v>477.4077540682879</v>
+        <v>574.316072513829</v>
       </c>
       <c r="S12">
-        <v>0.1563656984816028</v>
+        <v>0.19683353537232</v>
       </c>
       <c r="T12">
-        <v>0.1563656984816028</v>
+        <v>0.19683353537232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H13">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I13">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J13">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N13">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O13">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P13">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q13">
-        <v>13.59965666554311</v>
+        <v>4.440236302319</v>
       </c>
       <c r="R13">
-        <v>122.396909989888</v>
+        <v>39.96212672087101</v>
       </c>
       <c r="S13">
-        <v>0.04008874627499478</v>
+        <v>0.01369609359709551</v>
       </c>
       <c r="T13">
-        <v>0.04008874627499478</v>
+        <v>0.01369609359709551</v>
       </c>
     </row>
   </sheetData>
